--- a/sih-react/src/data/Data.xlsx
+++ b/sih-react/src/data/Data.xlsx
@@ -443,42 +443,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arshiya</t>
+          <t>CryptoCrux</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dhruvi</t>
+          <t>hello</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Divyanshu</t>
+          <t>bye</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Deepak</t>
+          <t>Nolan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mohit</t>
+          <t>Whyyy</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sachin</t>
+          <t>Divyanshu</t>
         </is>
       </c>
     </row>
